--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CE/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CE/10/seed4/result_data_RandomForest.xlsx
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>16.258</v>
+        <v>16.23510000000001</v>
       </c>
     </row>
     <row r="8">
@@ -587,7 +587,7 @@
         <v>4.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.77620000000001</v>
+        <v>-10.441</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>18.02830000000003</v>
+        <v>18.10590000000002</v>
       </c>
     </row>
     <row r="13">
@@ -740,7 +740,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.7482</v>
+        <v>-12.44619999999999</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.84120000000001</v>
+        <v>-11.55350000000001</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -882,7 +882,7 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>16.2024</v>
+        <v>16.17029999999999</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.04649999999999</v>
+        <v>-12.28349999999999</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.70559999999999</v>
+        <v>16.63809999999999</v>
       </c>
     </row>
     <row r="28">
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.08760000000002</v>
+        <v>17.06330000000002</v>
       </c>
     </row>
     <row r="30">
@@ -1069,7 +1069,7 @@
         <v>-7.88</v>
       </c>
       <c r="E37" t="n">
-        <v>16.60630000000002</v>
+        <v>16.63200000000002</v>
       </c>
     </row>
     <row r="38">
@@ -1086,7 +1086,7 @@
         <v>-9.09</v>
       </c>
       <c r="E38" t="n">
-        <v>16.4713</v>
+        <v>16.3798</v>
       </c>
     </row>
     <row r="39">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.29490000000001</v>
+        <v>16.98640000000001</v>
       </c>
     </row>
     <row r="52">
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.441</v>
+        <v>16.3151</v>
       </c>
     </row>
     <row r="56">
@@ -1607,13 +1607,13 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.61289999999999</v>
+        <v>-11.2931</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>17.24310000000003</v>
+        <v>17.12120000000003</v>
       </c>
     </row>
     <row r="70">
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>18.03710000000002</v>
+        <v>17.93740000000002</v>
       </c>
     </row>
     <row r="71">
@@ -1726,7 +1726,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.2459</v>
+        <v>-12.3144</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1828,7 +1828,7 @@
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-12.0821</v>
+        <v>-11.93529999999999</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.61839999999999</v>
+        <v>16.6586</v>
       </c>
     </row>
     <row r="84">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.8316</v>
+        <v>16.8146</v>
       </c>
     </row>
   </sheetData>
